--- a/8-courses/2023-2024-HK3-TTDN/5-ThoL-TTDN-2023-2024-HK3-20240612.xlsx
+++ b/8-courses/2023-2024-HK3-TTDN/5-ThoL-TTDN-2023-2024-HK3-20240612.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet name="2-ThePT-TTDN-2023-2024-HK3-2024" sheetId="1" r:id="rId1"/>
+    <sheet name="5-ThoL-TTDN-2023-2024-HK3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="182">
   <si>
     <t>ỦY BAN NHÂN DÂN TP.HỒ CHÍ MINH</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>Trường</t>
+  </si>
+  <si>
+    <t>Ngày ... tháng 06 năm 2024</t>
   </si>
   <si>
     <t>Ngày ... tháng ... năm ...</t>
@@ -582,7 +585,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +617,11 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -1101,137 +1109,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1258,6 +1266,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1610,7 +1619,7 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="13.8"/>
@@ -1779,7 +1788,7 @@
       </c>
     </row>
     <row r="6" spans="11:11">
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2620,14 +2629,14 @@
       <c r="D42" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="9" t="s">
@@ -2854,26 +2863,26 @@
         <v>178</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="10:12">
       <c r="J56" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="11:11">
-      <c r="K59" s="1" t="s">
-        <v>180</v>
+      <c r="K59" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
